--- a/results/mp/tinybert/home-spam/confidence/126/stop-words-topk-masking-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/126/stop-words-topk-masking-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="79">
   <si>
     <t>anchor score</t>
   </si>
@@ -64,28 +64,34 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>wonderful</t>
+    <t>amazing</t>
   </si>
   <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>pleased</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>beautiful</t>
   </si>
   <si>
-    <t>perfect</t>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>great</t>
   </si>
   <si>
     <t>loved</t>
@@ -94,166 +100,148 @@
     <t>salad</t>
   </si>
   <si>
-    <t>great</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>family</t>
   </si>
   <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
   <si>
     <t>pie</t>
   </si>
   <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
     <t>years</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>comfortable</t>
   </si>
   <si>
     <t>cooking</t>
   </si>
   <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
     <t>popcorn</t>
   </si>
   <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>old</t>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>highly</t>
   </si>
   <si>
     <t>tea</t>
   </si>
   <si>
-    <t>kitchen</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>highly</t>
+    <t>pan</t>
   </si>
   <si>
     <t>works</t>
   </si>
   <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
+    <t>recommend</t>
+  </si>
+  <si>
     <t>new</t>
   </si>
   <si>
+    <t>worth</t>
+  </si>
+  <si>
     <t>every</t>
   </si>
   <si>
-    <t>recommend</t>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>coffee</t>
   </si>
   <si>
     <t>makes</t>
   </si>
   <si>
-    <t>worth</t>
+    <t>bought</t>
   </si>
   <si>
     <t>quality</t>
   </si>
   <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
     <t>little</t>
   </si>
   <si>
-    <t>bought</t>
-  </si>
-  <si>
     <t>make</t>
   </si>
   <si>
     <t>one</t>
   </si>
   <si>
+    <t>really</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>really</t>
   </si>
   <si>
     <t>time</t>
@@ -620,7 +608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q70"/>
+  <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,7 +619,7 @@
         <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -689,13 +677,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.896551724137931</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -707,19 +695,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K3">
-        <v>0.956989247311828</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="L3">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M3">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -731,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -739,13 +727,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.625</v>
+        <v>0.6</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -757,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K4">
-        <v>0.875</v>
+        <v>0.90625</v>
       </c>
       <c r="L4">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M4">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -781,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -789,13 +777,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3410852713178295</v>
+        <v>0.3643410852713178</v>
       </c>
       <c r="C5">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D5">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -807,19 +795,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K5">
-        <v>0.871517027863777</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L5">
-        <v>563</v>
+        <v>60</v>
       </c>
       <c r="M5">
-        <v>563</v>
+        <v>60</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -831,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>83</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -839,13 +827,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3131313131313131</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C6">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D6">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -857,19 +845,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K6">
-        <v>0.8695652173913043</v>
+        <v>0.8560371517027864</v>
       </c>
       <c r="L6">
-        <v>60</v>
+        <v>553</v>
       </c>
       <c r="M6">
-        <v>60</v>
+        <v>553</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -881,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>9</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -889,13 +877,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.1351351351351351</v>
+        <v>0.1243243243243243</v>
       </c>
       <c r="C7">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -907,19 +895,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K7">
-        <v>0.8695652173913043</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L7">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="M7">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -939,13 +927,13 @@
         <v>19</v>
       </c>
       <c r="K8">
-        <v>0.7931034482758621</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="L8">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M8">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -957,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -991,13 +979,13 @@
         <v>21</v>
       </c>
       <c r="K10">
-        <v>0.7272727272727273</v>
+        <v>0.70995670995671</v>
       </c>
       <c r="L10">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="M10">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1009,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1017,13 +1005,13 @@
         <v>22</v>
       </c>
       <c r="K11">
-        <v>0.7045454545454546</v>
+        <v>0.7084745762711865</v>
       </c>
       <c r="L11">
-        <v>31</v>
+        <v>209</v>
       </c>
       <c r="M11">
-        <v>31</v>
+        <v>209</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1035,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1043,13 +1031,13 @@
         <v>23</v>
       </c>
       <c r="K12">
-        <v>0.6779661016949152</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L12">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="M12">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1061,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>95</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1069,13 +1057,13 @@
         <v>24</v>
       </c>
       <c r="K13">
-        <v>0.6619718309859155</v>
+        <v>0.640625</v>
       </c>
       <c r="L13">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M13">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1087,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1095,13 +1083,13 @@
         <v>25</v>
       </c>
       <c r="K14">
-        <v>0.6438356164383562</v>
+        <v>0.6396468699839486</v>
       </c>
       <c r="L14">
-        <v>47</v>
+        <v>797</v>
       </c>
       <c r="M14">
-        <v>47</v>
+        <v>797</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1113,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>26</v>
+        <v>449</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1121,13 +1109,13 @@
         <v>26</v>
       </c>
       <c r="K15">
-        <v>0.6260032102728732</v>
+        <v>0.6338028169014085</v>
       </c>
       <c r="L15">
-        <v>780</v>
+        <v>45</v>
       </c>
       <c r="M15">
-        <v>780</v>
+        <v>45</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1139,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>466</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1147,13 +1135,13 @@
         <v>27</v>
       </c>
       <c r="K16">
-        <v>0.5882352941176471</v>
+        <v>0.6301369863013698</v>
       </c>
       <c r="L16">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="M16">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1165,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1173,13 +1161,13 @@
         <v>28</v>
       </c>
       <c r="K17">
-        <v>0.5828571428571429</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="L17">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="M17">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1191,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>73</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1199,13 +1187,13 @@
         <v>29</v>
       </c>
       <c r="K18">
-        <v>0.578125</v>
+        <v>0.5865384615384616</v>
       </c>
       <c r="L18">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="M18">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1217,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1225,13 +1213,13 @@
         <v>30</v>
       </c>
       <c r="K19">
-        <v>0.5555555555555556</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L19">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M19">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1251,13 +1239,13 @@
         <v>31</v>
       </c>
       <c r="K20">
-        <v>0.5538461538461539</v>
+        <v>0.5542168674698795</v>
       </c>
       <c r="L20">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="M20">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1269,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1277,13 +1265,13 @@
         <v>32</v>
       </c>
       <c r="K21">
-        <v>0.5384615384615384</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L21">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="M21">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1295,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>48</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1303,13 +1291,13 @@
         <v>33</v>
       </c>
       <c r="K22">
-        <v>0.5329341317365269</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L22">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="M22">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1321,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>78</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1329,13 +1317,13 @@
         <v>34</v>
       </c>
       <c r="K23">
-        <v>0.5263157894736842</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="L23">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M23">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1347,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1355,13 +1343,13 @@
         <v>35</v>
       </c>
       <c r="K24">
-        <v>0.5098039215686274</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="L24">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="M24">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1373,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1381,13 +1369,13 @@
         <v>36</v>
       </c>
       <c r="K25">
-        <v>0.5079365079365079</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L25">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M25">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1399,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1407,7 +1395,7 @@
         <v>37</v>
       </c>
       <c r="K26">
-        <v>0.5</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="L26">
         <v>36</v>
@@ -1425,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1433,13 +1421,13 @@
         <v>38</v>
       </c>
       <c r="K27">
-        <v>0.5</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="L27">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="M27">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1451,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>35</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1459,13 +1447,13 @@
         <v>39</v>
       </c>
       <c r="K28">
-        <v>0.4912280701754386</v>
+        <v>0.5029940119760479</v>
       </c>
       <c r="L28">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="M28">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1477,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>29</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1485,13 +1473,13 @@
         <v>40</v>
       </c>
       <c r="K29">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="L29">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="M29">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1503,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1511,13 +1499,13 @@
         <v>41</v>
       </c>
       <c r="K30">
-        <v>0.4769230769230769</v>
+        <v>0.48</v>
       </c>
       <c r="L30">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="M30">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1529,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1537,13 +1525,13 @@
         <v>42</v>
       </c>
       <c r="K31">
-        <v>0.4698795180722892</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L31">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="M31">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1555,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>44</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1563,13 +1551,13 @@
         <v>43</v>
       </c>
       <c r="K32">
-        <v>0.4615384615384616</v>
+        <v>0.4216867469879518</v>
       </c>
       <c r="L32">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="M32">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1581,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>63</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1589,13 +1577,13 @@
         <v>44</v>
       </c>
       <c r="K33">
-        <v>0.4583333333333333</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="L33">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M33">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1607,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1615,13 +1603,13 @@
         <v>45</v>
       </c>
       <c r="K34">
-        <v>0.4216867469879518</v>
+        <v>0.3774509803921569</v>
       </c>
       <c r="L34">
-        <v>70</v>
+        <v>154</v>
       </c>
       <c r="M34">
-        <v>70</v>
+        <v>154</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1633,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>96</v>
+        <v>254</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1641,13 +1629,13 @@
         <v>46</v>
       </c>
       <c r="K35">
-        <v>0.4060150375939849</v>
+        <v>0.3692307692307693</v>
       </c>
       <c r="L35">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="M35">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1659,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>79</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1667,13 +1655,13 @@
         <v>47</v>
       </c>
       <c r="K36">
-        <v>0.3950617283950617</v>
+        <v>0.3618677042801556</v>
       </c>
       <c r="L36">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="M36">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1685,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>49</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1693,13 +1681,13 @@
         <v>48</v>
       </c>
       <c r="K37">
-        <v>0.3813229571984436</v>
+        <v>0.360655737704918</v>
       </c>
       <c r="L37">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="M37">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1711,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>159</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1719,13 +1707,13 @@
         <v>49</v>
       </c>
       <c r="K38">
-        <v>0.3455882352941176</v>
+        <v>0.3603603603603603</v>
       </c>
       <c r="L38">
-        <v>141</v>
+        <v>40</v>
       </c>
       <c r="M38">
-        <v>141</v>
+        <v>40</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1737,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>267</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1745,13 +1733,13 @@
         <v>50</v>
       </c>
       <c r="K39">
-        <v>0.3153153153153153</v>
+        <v>0.3191780821917808</v>
       </c>
       <c r="L39">
-        <v>35</v>
+        <v>233</v>
       </c>
       <c r="M39">
-        <v>35</v>
+        <v>233</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1763,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>76</v>
+        <v>497</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1771,13 +1759,13 @@
         <v>51</v>
       </c>
       <c r="K40">
-        <v>0.3026315789473684</v>
+        <v>0.3007518796992481</v>
       </c>
       <c r="L40">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="M40">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1789,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>53</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1797,13 +1785,13 @@
         <v>52</v>
       </c>
       <c r="K41">
-        <v>0.3013698630136986</v>
+        <v>0.2894736842105263</v>
       </c>
       <c r="L41">
-        <v>220</v>
+        <v>22</v>
       </c>
       <c r="M41">
-        <v>220</v>
+        <v>22</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1815,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>510</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1823,13 +1811,13 @@
         <v>53</v>
       </c>
       <c r="K42">
-        <v>0.2932330827067669</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="L42">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="M42">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1841,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>94</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1849,13 +1837,13 @@
         <v>54</v>
       </c>
       <c r="K43">
-        <v>0.2877697841726619</v>
+        <v>0.271523178807947</v>
       </c>
       <c r="L43">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M43">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1867,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1875,13 +1863,13 @@
         <v>55</v>
       </c>
       <c r="K44">
-        <v>0.277511961722488</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="L44">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="M44">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1893,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1901,13 +1889,13 @@
         <v>56</v>
       </c>
       <c r="K45">
-        <v>0.2454251883745963</v>
+        <v>0.2661870503597122</v>
       </c>
       <c r="L45">
-        <v>228</v>
+        <v>37</v>
       </c>
       <c r="M45">
-        <v>228</v>
+        <v>37</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1919,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>701</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1927,13 +1915,13 @@
         <v>57</v>
       </c>
       <c r="K46">
-        <v>0.2376237623762376</v>
+        <v>0.240043057050592</v>
       </c>
       <c r="L46">
-        <v>24</v>
+        <v>223</v>
       </c>
       <c r="M46">
-        <v>24</v>
+        <v>223</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1945,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>77</v>
+        <v>706</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1953,13 +1941,13 @@
         <v>58</v>
       </c>
       <c r="K47">
-        <v>0.2342342342342342</v>
+        <v>0.1974921630094044</v>
       </c>
       <c r="L47">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="M47">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1971,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>85</v>
+        <v>256</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1979,13 +1967,13 @@
         <v>59</v>
       </c>
       <c r="K48">
-        <v>0.2105960264900662</v>
+        <v>0.1973509933774834</v>
       </c>
       <c r="L48">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="M48">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1997,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>596</v>
+        <v>606</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2005,13 +1993,13 @@
         <v>60</v>
       </c>
       <c r="K49">
-        <v>0.2037037037037037</v>
+        <v>0.1790281329923274</v>
       </c>
       <c r="L49">
-        <v>22</v>
+        <v>140</v>
       </c>
       <c r="M49">
-        <v>22</v>
+        <v>140</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2023,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>86</v>
+        <v>642</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2031,13 +2019,13 @@
         <v>61</v>
       </c>
       <c r="K50">
-        <v>0.1986754966887417</v>
+        <v>0.1509433962264151</v>
       </c>
       <c r="L50">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="M50">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2049,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>121</v>
+        <v>315</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2057,13 +2045,13 @@
         <v>62</v>
       </c>
       <c r="K51">
-        <v>0.1943573667711599</v>
+        <v>0.1476510067114094</v>
       </c>
       <c r="L51">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="M51">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2075,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>257</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2083,13 +2071,13 @@
         <v>63</v>
       </c>
       <c r="K52">
-        <v>0.1828644501278772</v>
+        <v>0.1468926553672316</v>
       </c>
       <c r="L52">
-        <v>143</v>
+        <v>26</v>
       </c>
       <c r="M52">
-        <v>143</v>
+        <v>26</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2101,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>639</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2109,13 +2097,13 @@
         <v>64</v>
       </c>
       <c r="K53">
-        <v>0.174496644295302</v>
+        <v>0.1463414634146341</v>
       </c>
       <c r="L53">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M53">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2127,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>123</v>
+        <v>140</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2135,13 +2123,13 @@
         <v>65</v>
       </c>
       <c r="K54">
-        <v>0.1585365853658537</v>
+        <v>0.1337719298245614</v>
       </c>
       <c r="L54">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="M54">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2153,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>138</v>
+        <v>395</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2161,13 +2149,13 @@
         <v>66</v>
       </c>
       <c r="K55">
-        <v>0.1482479784366577</v>
+        <v>0.1182266009852217</v>
       </c>
       <c r="L55">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="M55">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2179,7 +2167,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>316</v>
+        <v>179</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2187,13 +2175,13 @@
         <v>67</v>
       </c>
       <c r="K56">
-        <v>0.1328413284132841</v>
+        <v>0.1159090909090909</v>
       </c>
       <c r="L56">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M56">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2205,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>235</v>
+        <v>389</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2213,13 +2201,13 @@
         <v>68</v>
       </c>
       <c r="K57">
-        <v>0.1299435028248588</v>
+        <v>0.1107011070110701</v>
       </c>
       <c r="L57">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M57">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2231,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>154</v>
+        <v>241</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2239,13 +2227,13 @@
         <v>69</v>
       </c>
       <c r="K58">
-        <v>0.1288782816229117</v>
+        <v>0.1094890510948905</v>
       </c>
       <c r="L58">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="M58">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2257,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2265,25 +2253,25 @@
         <v>70</v>
       </c>
       <c r="K59">
-        <v>0.1243781094527363</v>
+        <v>0.1073985680190931</v>
       </c>
       <c r="L59">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="M59">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="N59">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O59">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>176</v>
+        <v>374</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2291,13 +2279,13 @@
         <v>71</v>
       </c>
       <c r="K60">
-        <v>0.1206140350877193</v>
+        <v>0.1065292096219931</v>
       </c>
       <c r="L60">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="M60">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2309,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>401</v>
+        <v>260</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2317,13 +2305,13 @@
         <v>72</v>
       </c>
       <c r="K61">
-        <v>0.1181818181818182</v>
+        <v>0.1</v>
       </c>
       <c r="L61">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="M61">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2335,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>388</v>
+        <v>243</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2343,25 +2331,25 @@
         <v>73</v>
       </c>
       <c r="K62">
-        <v>0.1176470588235294</v>
+        <v>0.07096171802054155</v>
       </c>
       <c r="L62">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="M62">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="N62">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O62">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62">
-        <v>210</v>
+        <v>995</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2369,13 +2357,13 @@
         <v>74</v>
       </c>
       <c r="K63">
-        <v>0.1099656357388316</v>
+        <v>0.06010928961748634</v>
       </c>
       <c r="L63">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="M63">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2387,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>259</v>
+        <v>344</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2395,25 +2383,25 @@
         <v>75</v>
       </c>
       <c r="K64">
-        <v>0.1094890510948905</v>
+        <v>0.05308464849354376</v>
       </c>
       <c r="L64">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="M64">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64">
-        <v>366</v>
+        <v>660</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2421,13 +2409,13 @@
         <v>76</v>
       </c>
       <c r="K65">
-        <v>0.0962962962962963</v>
+        <v>0.04612546125461255</v>
       </c>
       <c r="L65">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M65">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2439,7 +2427,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>244</v>
+        <v>517</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2447,129 +2435,25 @@
         <v>77</v>
       </c>
       <c r="K66">
-        <v>0.07742537313432836</v>
+        <v>0.04155844155844156</v>
       </c>
       <c r="L66">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="M66">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q66">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="67" spans="10:17">
-      <c r="J67" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K67">
-        <v>0.06169296987087518</v>
-      </c>
-      <c r="L67">
-        <v>43</v>
-      </c>
-      <c r="M67">
-        <v>44</v>
-      </c>
-      <c r="N67">
-        <v>0.98</v>
-      </c>
-      <c r="O67">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P67" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q67">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="68" spans="10:17">
-      <c r="J68" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K68">
-        <v>0.06010928961748634</v>
-      </c>
-      <c r="L68">
-        <v>22</v>
-      </c>
-      <c r="M68">
-        <v>22</v>
-      </c>
-      <c r="N68">
-        <v>1</v>
-      </c>
-      <c r="O68">
-        <v>0</v>
-      </c>
-      <c r="P68" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q68">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="69" spans="10:17">
-      <c r="J69" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K69">
-        <v>0.04428044280442804</v>
-      </c>
-      <c r="L69">
-        <v>24</v>
-      </c>
-      <c r="M69">
-        <v>24</v>
-      </c>
-      <c r="N69">
-        <v>1</v>
-      </c>
-      <c r="O69">
-        <v>0</v>
-      </c>
-      <c r="P69" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q69">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="70" spans="10:17">
-      <c r="J70" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K70">
-        <v>0.04427083333333334</v>
-      </c>
-      <c r="L70">
-        <v>51</v>
-      </c>
-      <c r="M70">
-        <v>56</v>
-      </c>
-      <c r="N70">
-        <v>0.91</v>
-      </c>
-      <c r="O70">
-        <v>0.08999999999999997</v>
-      </c>
-      <c r="P70" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q70">
-        <v>1101</v>
+        <v>1107</v>
       </c>
     </row>
   </sheetData>
